--- a/Document/UI 시안/Main_UI시안_강일구.xlsx
+++ b/Document/UI 시안/Main_UI시안_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\강일구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31947D-7AFF-4660-8277-8956CEB6D9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,13 +209,33 @@
   </si>
   <si>
     <t xml:space="preserve"> - 남은 보상의 양을 확인 할 수 있도록 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재체력과 최대체력을 표기하며 폰트를 이용하여 제작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력이 감소 될 때마다 체력 게이지와 현재체력이 줄어든다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력이 줄어 들떄마다 슬라이드 되어 줄어든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 이미지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 최대체력 값은 게임에서 획득한 보상에 따라 줄어 들 수 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +427,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -450,7 +477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -494,7 +527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -527,18 +566,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1171624</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>12338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -571,18 +616,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>63055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -615,18 +666,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="모서리가 둥근 직사각형 12"/>
+        <xdr:cNvPr id="13" name="모서리가 둥근 직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -776,18 +833,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -808,6 +871,56 @@
         <a:xfrm>
           <a:off x="685800" y="19907250"/>
           <a:ext cx="1619250" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>965476</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>48465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383D11CD-E9BB-4458-9537-C71871781216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="11096625"/>
+          <a:ext cx="4651651" cy="896190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,10 +1194,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1208,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:K109"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,112 +1412,143 @@
       <c r="G38" s="8"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H52" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="3" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="3" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="2">
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
         <v>2</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="2">
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
         <v>3</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="2" t="s">
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="4" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D82:G82"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/UI 시안/Main_UI시안_강일구.xlsx
+++ b/Document/UI 시안/Main_UI시안_강일구.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31947D-7AFF-4660-8277-8956CEB6D9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160DD82-B750-41A3-B0B9-A286C7F984D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="UI 구성" sheetId="2" r:id="rId2"/>
+    <sheet name="실제 리소스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +230,45 @@
   </si>
   <si>
     <t xml:space="preserve"> - 최대체력 값은 게임에서 획득한 보상에 따라 줄어 들 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 란에서는 UI 디자이너가 직접 작업한 작업물을 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.01 추가 작업물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 바 내용 수정 (현재 체력 / 전체 체력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지 표기 내용 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 플레이중인 스테이지 안내 내용 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상 관련 아이콘 추가 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 내용을 토대로 만들어진 시안 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">07.19일 작업물 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,11 +401,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,13 +503,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>55959</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>201331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -502,7 +539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5238750"/>
+          <a:off x="685800" y="11315700"/>
           <a:ext cx="3846909" cy="1877731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,13 +553,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180941</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>203999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -566,13 +603,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1171624</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>12338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -616,13 +653,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>63055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -666,13 +703,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -833,13 +870,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -883,13 +920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>965476</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>48465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -925,6 +962,194 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637171</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MTlfMTU2/MDAxNTYzNTQxOTY3ODIy.T1QLxmU_T09Wx55Cy_3K98zwv1NZk6aMKMgXVmg9384g.PKEZXQLPYhQRMSc3WCrauoyhuMtbCQs1_9goVQDUM8Ug.PNG/EX_Image.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7BC5FD-2AD8-4C5A-938F-E639A44A9F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12257671" y="657225"/>
+          <a:ext cx="6306553" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MTlfMTU2/MDAxNTYzNTQxOTY3ODIy.T1QLxmU_T09Wx55Cy_3K98zwv1NZk6aMKMgXVmg9384g.PKEZXQLPYhQRMSc3WCrauoyhuMtbCQs1_9goVQDUM8Ug.PNG/EX_Image.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A235245-CD18-48E8-9997-163DF3A0116A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="4686300"/>
+          <a:ext cx="7048500" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MTlfMTU2/MDAxNTYzNTQxOTY3ODIy.T1QLxmU_T09Wx55Cy_3K98zwv1NZk6aMKMgXVmg9384g.PKEZXQLPYhQRMSc3WCrauoyhuMtbCQs1_9goVQDUM8Ug.PNG/EX_Image.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF44881B-933A-4999-A382-3A5EE5952343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="628650"/>
+          <a:ext cx="7048500" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1197,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1207,44 +1432,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1259,7 +1502,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1279,37 +1522,37 @@
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1322,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:K109"/>
+  <dimension ref="B2:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1579,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1355,200 +1598,247 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="22" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="4"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="3" t="s">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="2" t="s">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H52" s="4" t="s">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H81" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4" t="s">
+    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
+    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="3" t="s">
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
         <v>1</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="2">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="2">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
         <v>3</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="2" t="s">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62DCEB9-5931-4AEC-95FE-E64D985AFE00}">
+  <dimension ref="B2:B24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/UI 시안/Main_UI시안_강일구.xlsx
+++ b/Document/UI 시안/Main_UI시안_강일구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\UI 시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\UI 시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160DD82-B750-41A3-B0B9-A286C7F984D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -275,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="8582025"/>
+          <a:off x="657225" y="14658975"/>
           <a:ext cx="8401016" cy="1889924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1564,11 +1563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P138"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1817,10 +1816,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62DCEB9-5931-4AEC-95FE-E64D985AFE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
